--- a/data/trans_orig/P13A_1_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P13A_1_2023-Habitat-trans_orig.xlsx
@@ -754,16 +754,16 @@
         <v>25214</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21372</v>
+        <v>21057</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>26776</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9416547606905045</v>
+        <v>0.9416547606905046</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7981663877904789</v>
+        <v>0.7864100511110568</v>
       </c>
       <c r="P4" s="6" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
         <v>33860</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>28728</v>
+        <v>28985</v>
       </c>
       <c r="T4" s="5" t="n">
         <v>35422</v>
@@ -784,7 +784,7 @@
         <v>0.9558954924933576</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8110266573348104</v>
+        <v>0.8182725211975823</v>
       </c>
       <c r="W4" s="6" t="n">
         <v>1</v>
@@ -820,16 +820,16 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5404</v>
+        <v>5719</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.05834523930949542</v>
+        <v>0.05834523930949543</v>
       </c>
       <c r="O5" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2018336122095213</v>
+        <v>0.2135899488889465</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -841,7 +841,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>6694</v>
+        <v>6437</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.04410450750664238</v>
@@ -850,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.188973342665194</v>
+        <v>0.181727478802418</v>
       </c>
     </row>
     <row r="6">
@@ -955,16 +955,16 @@
         <v>49080</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45747</v>
+        <v>45679</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>50227</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>0.9771656739490266</v>
+        <v>0.9771656739490269</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.910796900188685</v>
+        <v>0.9094502736740003</v>
       </c>
       <c r="P7" s="6" t="n">
         <v>1</v>
@@ -976,16 +976,16 @@
         <v>64003</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>60631</v>
+        <v>60678</v>
       </c>
       <c r="T7" s="5" t="n">
         <v>65150</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.9823959802319198</v>
+        <v>0.9823959802319199</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9306417125952524</v>
+        <v>0.9313615493845484</v>
       </c>
       <c r="W7" s="6" t="n">
         <v>1</v>
@@ -1021,16 +1021,16 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4480</v>
+        <v>4548</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.02283432605097322</v>
+        <v>0.02283432605097321</v>
       </c>
       <c r="O8" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08920309981131337</v>
+        <v>0.09054972632599778</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -1042,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4519</v>
+        <v>4472</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.0176040197680801</v>
@@ -1051,7 +1051,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.06935828740474745</v>
+        <v>0.06863845061545157</v>
       </c>
     </row>
     <row r="9">
@@ -1156,16 +1156,16 @@
         <v>35968</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>32868</v>
+        <v>32395</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>37488</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.9594473284433901</v>
+        <v>0.9594473284433903</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8767642145914379</v>
+        <v>0.8641300585256437</v>
       </c>
       <c r="P10" s="6" t="n">
         <v>1</v>
@@ -1177,7 +1177,7 @@
         <v>46360</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>42044</v>
+        <v>42646</v>
       </c>
       <c r="T10" s="5" t="n">
         <v>47880</v>
@@ -1186,7 +1186,7 @@
         <v>0.9682490014397652</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8781077687379</v>
+        <v>0.8906879888337833</v>
       </c>
       <c r="W10" s="6" t="n">
         <v>1</v>
@@ -1222,7 +1222,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>4620</v>
+        <v>5093</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.04055267155660971</v>
@@ -1231,7 +1231,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.123235785408562</v>
+        <v>0.1358699414743562</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2</v>
@@ -1243,7 +1243,7 @@
         <v>0</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>5836</v>
+        <v>5234</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.03175099856023476</v>
@@ -1252,7 +1252,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1218922312621001</v>
+        <v>0.109312011166215</v>
       </c>
     </row>
     <row r="12">
@@ -1357,19 +1357,19 @@
         <v>44819</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>36620</v>
+        <v>36765</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>48456</v>
+        <v>48525</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.898622439145788</v>
+        <v>0.8986224391457879</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7342407054941488</v>
+        <v>0.7371463657750675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9715544789845511</v>
+        <v>0.9729278551124371</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>68</v>
@@ -1378,19 +1378,19 @@
         <v>50767</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>41419</v>
+        <v>41244</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>54548</v>
+        <v>54291</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9094235469925873</v>
+        <v>0.9094235469925872</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7419706655158644</v>
+        <v>0.7388323971013141</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9771554506272145</v>
+        <v>0.9725581992568471</v>
       </c>
     </row>
     <row r="14">
@@ -1420,19 +1420,19 @@
         <v>5056</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1419</v>
+        <v>1350</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>13255</v>
+        <v>13110</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.101377560854212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02844552101544898</v>
+        <v>0.02707214488756301</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.26575929450585</v>
+        <v>0.2628536342249324</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -1441,19 +1441,19 @@
         <v>5056</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1275</v>
+        <v>1532</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>14404</v>
+        <v>14579</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.09057645300741277</v>
+        <v>0.09057645300741275</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02284454937278546</v>
+        <v>0.02744180074315298</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2580293344841353</v>
+        <v>0.2611676028986861</v>
       </c>
     </row>
     <row r="15">
@@ -1558,19 +1558,19 @@
         <v>155080</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>146215</v>
+        <v>145845</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>159889</v>
+        <v>159856</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9435065701824737</v>
+        <v>0.9435065701824735</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8895702521943534</v>
+        <v>0.8873155270420866</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9727628384682264</v>
+        <v>0.9725621456740506</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>261</v>
@@ -1579,19 +1579,19 @@
         <v>194989</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>185904</v>
+        <v>185586</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>199719</v>
+        <v>200013</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.9545434187860116</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9100689901674069</v>
+        <v>0.9085105872239492</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9776950480371631</v>
+        <v>0.9791373958151877</v>
       </c>
     </row>
     <row r="17">
@@ -1621,19 +1621,19 @@
         <v>9286</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>4477</v>
+        <v>4510</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>18151</v>
+        <v>18521</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.05649342981752645</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02723716153177381</v>
+        <v>0.02743785432594939</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1104297478056466</v>
+        <v>0.1126844729579134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1642,19 +1642,19 @@
         <v>9286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4556</v>
+        <v>4262</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18371</v>
+        <v>18689</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.04545658121398839</v>
+        <v>0.04545658121398841</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02230495196283663</v>
+        <v>0.02086260418481223</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08993100983259281</v>
+        <v>0.09148941277605081</v>
       </c>
     </row>
     <row r="18">
